--- a/gps_documentation.xlsx
+++ b/gps_documentation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="19440" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="19440" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="GPX" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>Program</t>
   </si>
@@ -30,10 +30,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>joins two or more GPX files together  
-optionally removes &lt;time&gt; (date-time) and &lt;ele&gt; (elevation) tags</t>
-  </si>
-  <si>
     <t>Waypoints</t>
   </si>
   <si>
@@ -52,9 +48,6 @@
     <t>optionally remove</t>
   </si>
   <si>
-    <t>preserves all - so can duplicate</t>
-  </si>
-  <si>
     <t>g.pl</t>
   </si>
   <si>
@@ -71,10 +64,6 @@
   </si>
   <si>
     <t>gpx_tidy.pl</t>
-  </si>
-  <si>
-    <t>converts GPX file to a single segment JSON file
-superceded by g.pl</t>
   </si>
   <si>
     <t>reads a GPX file and generates fresh times for each point. 
@@ -98,96 +87,187 @@
     <t>adds / updates</t>
   </si>
   <si>
-    <t>preserves but doesn't add elevation</t>
-  </si>
-  <si>
     <t>add altitudes obtained from STRM data to GPX file</t>
   </si>
   <si>
-    <t>preserves original and optionally adds new from glossary</t>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Field 1</t>
+  </si>
+  <si>
+    <t>Field 2</t>
+  </si>
+  <si>
+    <t>Field 3</t>
+  </si>
+  <si>
+    <t>uk4.txt</t>
+  </si>
+  <si>
+    <t>global.txt</t>
+  </si>
+  <si>
+    <t>TAB delimited</t>
+  </si>
+  <si>
+    <t>NG Easting (km)</t>
+  </si>
+  <si>
+    <t>NG Northing (km)</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field 4 </t>
+  </si>
+  <si>
+    <t>Place Name</t>
+  </si>
+  <si>
+    <t>Field 5</t>
+  </si>
+  <si>
+    <t>n = new</t>
+  </si>
+  <si>
+    <t>Longitude (deg)
+East positive</t>
+  </si>
+  <si>
+    <t>Latitude (deg)
+North positive</t>
+  </si>
+  <si>
+    <t>OS_Open_Names_NG.txt</t>
+  </si>
+  <si>
+    <t>OS_Open_Names_LL.txt</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>preserves all - so may duplicate some</t>
+  </si>
+  <si>
+    <t>preserves all original ones and optionally adds new from glossary</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">no - outputs single segment in CSV file.
+Also outputs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>single segment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in GPX</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">destroys - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>should include</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">converts GPX file to a single segment JSON file
+superceded by g.pl.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>this is used by all.bat to generate JSON output.</t>
+    </r>
+  </si>
+  <si>
+    <t>preserves but doesn't add their elevations.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">joins two or more GPX files together  
+optionally removes &lt;time&gt; (date-time) and &lt;ele&gt; (elevation) tags
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Should we remove duplicate wayponts withsame name and within 10m of each other?</t>
+    </r>
   </si>
   <si>
     <t>reads a GPX track file (-i) and one or more Glossary file(s) (-g). 
-It works out which places have been 'passed through' and outputs one or both of a (-o) a JSON format file and a (-x) GPX format file. 
+It works out which places have been 'passed through' and outputs one or both of 
+    a  (-o) a JSON format file and 
+    a (-x) GPX format file. 
 The GPX format file contains the original waypoints from the input GPX file  plus additional waypoints corresponding to each of the points 'passed though'. 
 The JSON format file contains both the original track (as a "LineString" Feature), and the original waypoints (plus optionally if glossary(s) specified) each point passed through (as a series of "Point" Features). 
 Track segments in the original GPX file are respected.</t>
   </si>
   <si>
-    <t>reads a GPX file and removes 'stationary' points. 
+    <r>
+      <t xml:space="preserve">reads a GPX file and removes 'stationary' points. 
 the GPX file contains one or more segments each containing a track it implements two algorithms to clean up the track -  A(B)C, and Clusterng
 outputs both a GPX and CSV file. 
-The CSV file doesn't contain segments. 
-The GPX file ??? segments.</t>
-  </si>
-  <si>
-    <t>no - outputs single segment in CSV file.</t>
-  </si>
-  <si>
-    <t>Format</t>
-  </si>
-  <si>
-    <t>Field 1</t>
-  </si>
-  <si>
-    <t>Field 2</t>
-  </si>
-  <si>
-    <t>Field 3</t>
-  </si>
-  <si>
-    <t>uk4.txt</t>
-  </si>
-  <si>
-    <t>global.txt</t>
-  </si>
-  <si>
-    <t>TAB delimited</t>
-  </si>
-  <si>
-    <t>NG Easting (km)</t>
-  </si>
-  <si>
-    <t>NG Northing (km)</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field 4 </t>
-  </si>
-  <si>
-    <t>Place Name</t>
-  </si>
-  <si>
-    <t>Field 5</t>
-  </si>
-  <si>
-    <t>n = new</t>
-  </si>
-  <si>
-    <t>Longitude (deg)
-East positive</t>
-  </si>
-  <si>
-    <t>Latitude (deg)
-North positive</t>
-  </si>
-  <si>
-    <t>OS_Open_Names_NG.txt</t>
-  </si>
-  <si>
-    <t>OS_Open_Names_LL.txt</t>
-  </si>
-  <si>
-    <t>File Name</t>
+The CSV file doesn't contain segments. (it can't?)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The GPX file only contains a single segment.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +286,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -570,15 +658,17 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="6" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="3.42578125" customWidth="1"/>
     <col min="8" max="8" width="90.140625" customWidth="1"/>
   </cols>
@@ -589,16 +679,16 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3" t="s">
@@ -611,152 +701,152 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="4" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="9" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -870,7 +960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -885,27 +975,27 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -921,49 +1011,49 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -980,42 +1070,42 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>

--- a/gps_documentation.xlsx
+++ b/gps_documentation.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GPX!$A$1:$H$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GPX!$A$1:$H$11</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
   <si>
     <t>Program</t>
   </si>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t>&lt;ele&gt;</t>
-  </si>
-  <si>
-    <t>optionally remove</t>
-  </si>
-  <si>
-    <t>g.pl</t>
   </si>
   <si>
     <t>gpx.pl</t>
@@ -219,32 +213,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">joins two or more GPX files together  
-optionally removes &lt;time&gt; (date-time) and &lt;ele&gt; (elevation) tags
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Should we remove duplicate wayponts withsame name and within 10m of each other?</t>
-    </r>
-  </si>
-  <si>
-    <t>reads a GPX track file (-i) and one or more Glossary file(s) (-g). 
-It works out which places have been 'passed through' and outputs one or both of 
-    a  (-o) a JSON format file and 
-    a (-x) GPX format file. 
-The GPX format file contains the original waypoints from the input GPX file  plus additional waypoints corresponding to each of the points 'passed though'. 
-The JSON format file contains both the original track (as a "LineString" Feature), and the original waypoints (plus optionally if glossary(s) specified) each point passed through (as a series of "Point" Features). 
-Track segments in the original GPX file are respected.</t>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">reads a GPX file and removes 'stationary' points. 
 the GPX file contains one or more segments each containing a track it implements two algorithms to clean up the track -  A(B)C, and Clusterng
 outputs both a GPX and CSV file. 
@@ -260,6 +228,95 @@
         <scheme val="minor"/>
       </rPr>
       <t>The GPX file only contains a single segment.</t>
+    </r>
+  </si>
+  <si>
+    <t>optionally remove (-e)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">reads a GPX track file (-i) and one or more Glossary file(s) (-g). 
+It works out which places have been 'passed through' and outputs one or both of 
+    -o  a JSON format file and 
+    -x  GPX format file. 
+The GPX format file contains the original waypoints from the input GPX file  plus additional waypoints corresponding to each of the points 'passed though'. 
+The JSON format file contains both the original track (as a "LineString" Feature), and the original waypoints (plus optionally if glossary(s) specified) each point passed through (as a series of "Point" Features). 
+Track segments in the original GPX file are respected.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Perhaps split into two programmes - one to add places the other to outut a JSON file from GPX input</t>
+    </r>
+  </si>
+  <si>
+    <t>gpx_place.pl</t>
+  </si>
+  <si>
+    <t>gpx_json.pl</t>
+  </si>
+  <si>
+    <t>preserves all original ones and optionally adds new from glossary corresponding to places passed through</t>
+  </si>
+  <si>
+    <t>g.pl
+See gpx_place.pl and gpx_json.pl</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">joins two or more GPX files together  
+   -t removes &lt;time&gt; (date-time) tags and 
+   -e removes &lt;ele&gt; (elevation) tags
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Should we remove duplicate wayponts with same name and within 10m of each other?</t>
+    </r>
+  </si>
+  <si>
+    <t>optionally remove (-t)</t>
+  </si>
+  <si>
+    <t>reads a GPX track file, and one or more Glossary file(s). 
+It works out which places have been 'passed through' and adds them as waypoints
+    -i  input GPX file 
+    -g  one or more glossary files, and 
+    -o  output GPX file. 
+The output GPX file contains the original waypoints from the input GPX file  plus additional waypoints corresponding to each of the points 'passed though'. 
+Track segments in the original GPX file are respected.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">reads a GPX track file (-i) and outputs (-o) a JSON format file 
+    -i input GPX file
+    -o  output JSON format file. 
+The input GPX format file may contain multiple segments and waypoints.
+The output JSON format file contains both the original track segments (as a series of "LineString" Feature), and the  waypoints (as a series of "Point" Features). 
+UNDER DEVELOPMENT 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Perhaps split into two programmes - one to add places the other to outut a JSON file from GPX input</t>
     </r>
   </si>
 </sst>
@@ -325,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -350,6 +407,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -656,10 +716,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -704,51 +764,51 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="1" t="s">
+    <row r="5" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>44</v>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -758,116 +818,140 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="1" t="s">
-        <v>18</v>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>46</v>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -912,20 +996,20 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
@@ -937,10 +1021,10 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -948,6 +1032,26 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
@@ -975,27 +1079,27 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1011,49 +1115,49 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -1070,42 +1174,42 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>

--- a/gps_documentation.xlsx
+++ b/gps_documentation.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GPX!$A$1:$H$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GPX!$B$1:$I$11</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
   <si>
     <t>Program</t>
   </si>
@@ -212,25 +212,6 @@
     <t>preserves but doesn't add their elevations.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">reads a GPX file and removes 'stationary' points. 
-the GPX file contains one or more segments each containing a track it implements two algorithms to clean up the track -  A(B)C, and Clusterng
-outputs both a GPX and CSV file. 
-The CSV file doesn't contain segments. (it can't?)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The GPX file only contains a single segment.</t>
-    </r>
-  </si>
-  <si>
     <t>optionally remove (-e)</t>
   </si>
   <si>
@@ -299,13 +280,21 @@
 Track segments in the original GPX file are respected.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">reads a GPX track file (-i) and outputs (-o) a JSON format file 
+    <t xml:space="preserve">reads a GPX track file (-i) and outputs (-o) a JSON format file 
     -i input GPX file
     -o  output JSON format file. 
 The input GPX format file may contain multiple segments and waypoints.
-The output JSON format file contains both the original track segments (as a series of "LineString" Feature), and the  waypoints (as a series of "Point" Features). 
-UNDER DEVELOPMENT 
+The output JSON format file contains both the original track segments (as a series of "LineString" Feature), and the  waypoints (as a series of "Point" Features). </t>
+  </si>
+  <si>
+    <t>Sort</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">reads a GPX file and removes 'stationary' points. 
+the GPX file contains one or more segments each containing a track it implements two algorithms to clean up the track -  A(B)C, and Clusterng
+outputs both a GPX and CSV file. 
+The CSV file doesn't contain segments. (it can't?)
 </t>
     </r>
     <r>
@@ -316,7 +305,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Perhaps split into two programmes - one to add places the other to outut a JSON file from GPX input</t>
+      <t xml:space="preserve">The GPX file only contains a single segment.
+MAKE NEW PROGRAMMES
+gpx_clean.pl and gpx_csv.pl
+</t>
     </r>
   </si>
 </sst>
@@ -382,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -411,6 +403,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -716,335 +711,369 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="3.42578125" customWidth="1"/>
-    <col min="8" max="8" width="90.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" customWidth="1"/>
+    <col min="9" max="9" width="90.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="1"/>
       <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="1"/>
       <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="1"/>
       <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="1"/>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1052,8 +1081,12 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
     </row>
   </sheetData>
+  <sortState ref="A2:I11">
+    <sortCondition ref="A2:A11"/>
+  </sortState>
   <printOptions gridLines="1"/>
   <pageMargins left="0.49" right="0.35" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>

--- a/gps_documentation.xlsx
+++ b/gps_documentation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="19440" windowHeight="8010"/>
@@ -9,17 +9,17 @@
   <sheets>
     <sheet name="GPX" sheetId="1" r:id="rId1"/>
     <sheet name="Glossary" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Display" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GPX!$B$1:$I$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GPX!$B$1:$I$10</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
   <si>
     <t>Program</t>
   </si>
@@ -315,8 +315,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -405,6 +405,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -496,7 +499,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -531,7 +533,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -707,17 +708,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.7109375" customWidth="1"/>
@@ -725,11 +726,11 @@
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="6" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="3.42578125" customWidth="1"/>
-    <col min="9" max="9" width="90.140625" customWidth="1"/>
+    <col min="9" max="9" width="100.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -753,7 +754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="60">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -778,7 +779,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="120">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -803,7 +804,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="90">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -828,7 +829,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="45">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -853,7 +854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="45">
       <c r="A6" s="11">
         <v>7</v>
       </c>
@@ -878,7 +879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="45">
       <c r="A7" s="11">
         <v>10</v>
       </c>
@@ -903,7 +904,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="45">
       <c r="A8" s="11">
         <v>12</v>
       </c>
@@ -928,7 +929,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="150">
       <c r="A9" s="11">
         <v>13</v>
       </c>
@@ -953,33 +954,41 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="135">
       <c r="A10" s="11"/>
-    </row>
-    <row r="11" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="11"/>
-      <c r="B11" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="11"/>
       <c r="B12" s="5"/>
       <c r="C12" s="2"/>
@@ -990,7 +999,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="11"/>
       <c r="B13" s="5"/>
       <c r="C13" s="2"/>
@@ -1001,7 +1010,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="11"/>
       <c r="B14" s="5"/>
       <c r="C14" s="2"/>
@@ -1012,8 +1021,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+    <row r="15" spans="1:9">
       <c r="B15" s="5"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
@@ -1023,7 +1031,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="B16" s="5"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
@@ -1033,17 +1041,17 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9">
       <c r="B17" s="5"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" s="5"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1051,9 +1059,9 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" s="5"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1063,8 +1071,8 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
+    <row r="20" spans="2:9">
+      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1073,35 +1081,25 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
   </sheetData>
   <sortState ref="A2:I11">
     <sortCondition ref="A2:A11"/>
   </sortState>
   <printOptions gridLines="1"/>
-  <pageMargins left="0.49" right="0.35" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.47244094488188981" right="0.35433070866141736" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="1.28515625" customWidth="1"/>
@@ -1110,7 +1108,7 @@
     <col min="5" max="9" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
@@ -1135,7 +1133,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1146,7 +1144,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -1171,7 +1169,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="30">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1194,7 +1192,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1205,7 +1203,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
@@ -1226,7 +1224,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="30">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -1254,13 +1252,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>